--- a/src/test/resources/VtigerTestData.xlsx
+++ b/src/test/resources/VtigerTestData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="49">
   <si>
     <t>Test Case_ID</t>
   </si>
@@ -1490,7 +1490,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1555,7 +1555,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5">

--- a/src/test/resources/VtigerTestData.xlsx
+++ b/src/test/resources/VtigerTestData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="49">
   <si>
     <t>Test Case_ID</t>
   </si>
@@ -1490,7 +1490,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1555,7 +1555,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
